--- a/###6.xlsx
+++ b/###6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Şebnem\Desktop\tutorials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52E8C459-FD37-47C0-A949-6524E470F15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA03044-0231-424E-92BF-9B543EE0D1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2FEDC08F-F095-4A3B-A91A-B630F88231F1}"/>
   </bookViews>
@@ -30,10 +30,10 @@
     <t>Y</t>
   </si>
   <si>
-    <t>x1</t>
+    <t>X1</t>
   </si>
   <si>
-    <t>x2</t>
+    <t>X2</t>
   </si>
 </sst>
 </file>
@@ -388,8 +388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B602B609-117A-466D-A9C2-C9DF5A7C4C53}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A985" workbookViewId="0">
-      <selection activeCell="H992" sqref="H992"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
